--- a/candybars.xlsx
+++ b/candybars.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\MEGA\Red Deer Polytech\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1c18359414f04c/Desktop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298ED467-7D8E-4CD4-9AC1-288174ED4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{298ED467-7D8E-4CD4-9AC1-288174ED4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{889835A1-B418-426F-950A-7EE22B54FDDC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="candybars" sheetId="1" r:id="rId1"/>
+    <sheet name="candybars_mini" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -1929,4 +1930,310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC60668-0467-4D59-91A3-23597F785104}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>